--- a/share/config/cfg_season.xlsx
+++ b/share/config/cfg_season.xlsx
@@ -17,10 +17,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
-    <t/>
+    <t>唯一ID</t>
   </si>
   <si>
     <t>common</t>
+  </si>
+  <si>
+    <t>int!</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>int</t>
@@ -28,33 +37,22 @@
   <si>
     <t>level</t>
   </si>
-  <si>
-    <t>唯一ID</t>
-  </si>
-  <si>
-    <t>int!</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-MM-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-MM-dd HH:mm:ss"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -112,26 +110,26 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -148,44 +146,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
+    <col min="1" max="1" width="10.0" customWidth="true"/>
     <col min="2" max="2" width="20.0" customWidth="true"/>
-    <col min="1" max="1" width="10.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="6">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
         <v>4</v>
-      </c>
-      <c r="B1" t="s" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="6">
+      <c r="A2" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="6">
+      <c r="A3" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>5</v>
-      </c>
-      <c r="B3" t="s" s="3">
-        <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="6">
+      <c r="A4" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>6</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:B4"/>
+  <dataValidations count="2">
+    <dataValidation type="list" sqref="A2:B2" allowBlank="true" errorStyle="stop" showErrorMessage="true">
+      <formula1>"common,server,client"</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="A3:B3" allowBlank="true" errorStyle="stop" showErrorMessage="true">
+      <formula1>"int,string,double,long,bool,json,datetime,date,int!"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>